--- a/test/xls/PropStatic.xlsx
+++ b/test/xls/PropStatic.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun/repos/innovision/ConfigTool/test/xls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="PropStatic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -157,13 +170,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,7 +215,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -215,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,12 +270,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -292,12 +305,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -504,19 +517,19 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +538,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +547,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -543,7 +556,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -572,7 +585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -599,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -628,7 +641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -657,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -686,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -715,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -744,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1</v>
       </c>
@@ -755,7 +768,7 @@
         <v>100001</v>
       </c>
       <c r="E11">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -770,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2</v>
       </c>
@@ -778,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="E12">
         <v>100002</v>

--- a/test/xls/PropStatic.xlsx
+++ b/test/xls/PropStatic.xlsx
@@ -1,45 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun/repos/innovision/ConfigTool/test/xls/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="PropStatic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>ClassName</t>
   </si>
   <si>
+    <t>PropStatic</t>
+  </si>
+  <si>
     <t>ClassDescription</t>
   </si>
   <si>
+    <t>道具静态表</t>
+  </si>
+  <si>
     <t>ClassGroup</t>
   </si>
   <si>
     <t>CatLogicStatic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FieldName</t>
@@ -48,23 +40,92 @@
     <t>Id</t>
   </si>
   <si>
+    <t>PropType</t>
+  </si>
+  <si>
+    <t>PropName</t>
+  </si>
+  <si>
+    <t>PropDescirption</t>
+  </si>
+  <si>
+    <t>PropIcon</t>
+  </si>
+  <si>
+    <t>PropMaxNum</t>
+  </si>
+  <si>
     <t>Coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Min</t>
+    </r>
+  </si>
+  <si>
+    <t>TimeMax</t>
+  </si>
+  <si>
+    <t>GoldMin</t>
+  </si>
+  <si>
+    <t>GoldMax</t>
   </si>
   <si>
     <t>FieldDescription</t>
   </si>
   <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>道具名字</t>
+  </si>
+  <si>
+    <t>道具描述</t>
+  </si>
+  <si>
+    <t>道具图标</t>
+  </si>
+  <si>
+    <t>道具叠加数</t>
+  </si>
+  <si>
     <t>花费金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花费薄荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小时间</t>
+  </si>
+  <si>
+    <t>最大时间</t>
+  </si>
+  <si>
+    <t>最小金币</t>
+  </si>
+  <si>
+    <t>最大金币</t>
   </si>
   <si>
     <t>Type</t>
@@ -73,8 +134,16 @@
     <t>id</t>
   </si>
   <si>
+    <t>enum(EnumPropType,Grass(猫草),Toy(玩具))</t>
+  </si>
+  <si>
+    <t>id(LanguageStatic)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Uniqueness</t>
@@ -92,102 +161,96 @@
     <t>Client</t>
   </si>
   <si>
-    <t>PropStatic</t>
-  </si>
-  <si>
-    <t>道具静态表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum(EnumPropType,Grass(猫草),Toy(玩具))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropDescirption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropMaxNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具叠加数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id(LanguageStatic)</t>
-  </si>
-  <si>
-    <t>PropName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maocao_icon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maocao_icon2</t>
+  </si>
+  <si>
+    <t>maocao_icon3</t>
+  </si>
+  <si>
+    <t>maocao_icon4</t>
+  </si>
+  <si>
+    <t>maocao_icon5</t>
+  </si>
+  <si>
+    <t>maocao_icon6</t>
+  </si>
+  <si>
+    <t>maocao_icon7</t>
+  </si>
+  <si>
+    <t>maocao_icon8</t>
+  </si>
+  <si>
+    <t>maocao_icon9</t>
+  </si>
+  <si>
+    <t>maocao_icon10</t>
+  </si>
+  <si>
+    <t>maocao_icon11</t>
+  </si>
+  <si>
+    <t>maocao_icon12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -213,9 +276,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -223,12 +289,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -270,12 +339,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,12 +374,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -514,165 +583,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
@@ -698,10 +815,22 @@
       <c r="I8" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>1</v>
@@ -727,10 +856,22 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
@@ -756,62 +897,478 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>100001</v>
-      </c>
-      <c r="E11">
-        <v>100001</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>21001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>22001</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>99</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>100002</v>
-      </c>
-      <c r="E12">
-        <v>100002</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>22002</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>99</v>
       </c>
       <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>120</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>22003</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+      <c r="L13">
+        <v>120</v>
+      </c>
+      <c r="M13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>21004</v>
+      </c>
+      <c r="E14" s="1">
+        <v>22004</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>360</v>
+      </c>
+      <c r="K14">
+        <v>420</v>
+      </c>
+      <c r="L14">
+        <v>75</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1">
+        <v>21005</v>
+      </c>
+      <c r="E15" s="1">
+        <v>22005</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>360</v>
+      </c>
+      <c r="K15">
+        <v>420</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1">
+        <v>21006</v>
+      </c>
+      <c r="E16" s="1">
+        <v>22006</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>400</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>420</v>
+      </c>
+      <c r="K16">
+        <v>450</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+      <c r="M16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>21007</v>
+      </c>
+      <c r="E17" s="1">
+        <v>22007</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21008</v>
+      </c>
+      <c r="E18" s="1">
+        <v>22008</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1">
+        <v>21009</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22009</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>900</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>10</v>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21010</v>
+      </c>
+      <c r="E20" s="1">
+        <v>22010</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>21011</v>
+      </c>
+      <c r="E21" s="1">
+        <v>22011</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3000</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21012</v>
+      </c>
+      <c r="E22" s="1">
+        <v>22012</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5000</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>